--- a/acount and passwords.xlsx
+++ b/acount and passwords.xlsx
@@ -1,29 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F222EC2C-F408-40CF-8437-287218BD0FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8D2C93-91C5-474F-A363-3B5A9074CB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$301</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$I$31</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="427">
   <si>
     <t>acount</t>
   </si>
@@ -31,21 +35,165 @@
     <t>password</t>
   </si>
   <si>
+    <t>Study group</t>
+  </si>
+  <si>
+    <t>Patient_ID</t>
+  </si>
+  <si>
+    <t>Therapist</t>
+  </si>
+  <si>
+    <t>Coordinator</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>Patient_Status</t>
+  </si>
+  <si>
+    <t>messages</t>
+  </si>
+  <si>
     <t>B97N</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>01-041</t>
+  </si>
+  <si>
+    <t>Naama Peled-Ironi</t>
+  </si>
+  <si>
+    <t>Ganit Goren</t>
+  </si>
+  <si>
+    <t>2023-08-20</t>
+  </si>
+  <si>
+    <t>2023-11-18</t>
+  </si>
+  <si>
+    <t>2024-02-16</t>
+  </si>
+  <si>
+    <t>2024-05-17</t>
+  </si>
+  <si>
+    <t>2024-08-20</t>
+  </si>
+  <si>
+    <t>Working_ok</t>
+  </si>
+  <si>
+    <t>לבדוק למה לא מתרגלת כיווץ והרפיית שרירים|לבדוק למה לא מתרגלת כיווץ והרפיית שרירים|לבדוק למה לא מתרגלת כיווץ והרפיית שרירים</t>
+  </si>
+  <si>
     <t>NL3Z</t>
   </si>
   <si>
+    <t>01-001 איתן</t>
+  </si>
+  <si>
+    <t>Milca Hanukoglu</t>
+  </si>
+  <si>
+    <t>2023-08-27</t>
+  </si>
+  <si>
+    <t>2024-05-16</t>
+  </si>
+  <si>
+    <t>2024-08-14</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>שבוע שעבר תרגל יחסית יפה...20/9/23
+יום שני תרגל בצהריים סריקת מתחים והצליח טיפה להוריד את הסאדס (4 ל 3) וכאב מ 1 ל אפס
+יום שלישי תרגל בבוקר מקום בטוח שלי והוריד קצת את התשישות (מ 5 ל 4)  ואחר הצהריים תרגל 6 דקות של נשימות עם דיבור עצמי חיובי שקצת הורידו לו את התשישות (מ 6 ל 5) והכאב (3 ל 2)
+יום רביעי תרגל בבוקר מקום בטוח שלי וזה הוריד לו קצת את התשישות (מ 4 ל 3)
+וביום חמישי תרגל בבוקר סריקת מתחים קצרה שטיפה הורידה סאדס (מ 3 ל 2) ולא היה לו כאב בכלל
+ואז רק ביום ראשון בערב תרגל נשימה עם דיבור עצמי חיובי והוריד סאדס (מ 6 ל 5), כאב (בשתי נקודות מ 5 ל 3)) תשישות (היה בתשע וירד ל 8!!) והרווחה הנפשית עלתה מ 2 ל 5. שזה תרגול מאד מוצלח עבורו. 
+מעניין שהיה בכזו תשישות גבוהה אחרי סוף השבוע. שווה לבדוק מה קורה לו בסוף השבוע ואולי זה גם קשור לזה שלא תרגל כמה ימים, כי גם כשהתחיל לתרגל ביום שני באותו שבוע, התחיל עם תשישות של 8 (ביום חמישי היה עם תשישות של 3. הבדל משמעותי). אז שווה לבדוק אם יש כאן מגמה - קושי כלשהו בסופ"ש ולהראות שהתרגולים כנראה עוזרים לו לשמור על איזושהי רמה נמוכה יותר של תשישות.
+אבל !! זה היה בשבוע שעבר!!
+מאז לא תרגל בכלל.
+צריך להתיישר בתרגולים.</t>
+  </si>
+  <si>
     <t>01V5</t>
   </si>
   <si>
+    <t>01-044</t>
+  </si>
+  <si>
+    <t>Adi Vilensky</t>
+  </si>
+  <si>
+    <t>2023-09-10</t>
+  </si>
+  <si>
+    <t>2023-12-09</t>
+  </si>
+  <si>
+    <t>2024-03-08</t>
+  </si>
+  <si>
+    <t>2024-06-06</t>
+  </si>
+  <si>
+    <t>2024-09-04</t>
+  </si>
+  <si>
     <t>3TH9</t>
   </si>
   <si>
+    <t>01-003</t>
+  </si>
+  <si>
+    <t>Shachar Michael</t>
+  </si>
+  <si>
     <t>6270</t>
   </si>
   <si>
+    <t>01-045</t>
+  </si>
+  <si>
+    <t>Hila Askayo</t>
+  </si>
+  <si>
+    <t>2023-11-06</t>
+  </si>
+  <si>
+    <t>2024-02-04</t>
+  </si>
+  <si>
+    <t>2024-05-04</t>
+  </si>
+  <si>
+    <t>2024-08-02</t>
+  </si>
+  <si>
+    <t>2024-10-31</t>
+  </si>
+  <si>
     <t>ANQT</t>
   </si>
   <si>
@@ -484,18 +632,48 @@
     <t>2CSM</t>
   </si>
   <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>מילכה חנוקוגלו</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>2023-08-21</t>
+  </si>
+  <si>
+    <t>2023-11-19</t>
+  </si>
+  <si>
+    <t>2024-02-17</t>
+  </si>
+  <si>
+    <t>2024-08-15</t>
+  </si>
+  <si>
     <t>P2RE</t>
   </si>
   <si>
+    <t>זהר זיגנר פלד</t>
+  </si>
+  <si>
     <t>ZSU1</t>
   </si>
   <si>
     <t>QDY7</t>
   </si>
   <si>
+    <t>עדי וילנסקי</t>
+  </si>
+  <si>
     <t>4L8H</t>
   </si>
   <si>
+    <t>נעמה פלד עירוני</t>
+  </si>
+  <si>
     <t>QGB8</t>
   </si>
   <si>
@@ -505,6 +683,9 @@
     <t>2UR2</t>
   </si>
   <si>
+    <t>שחר מיכאל</t>
+  </si>
+  <si>
     <t>MLWI</t>
   </si>
   <si>
@@ -514,18 +695,87 @@
     <t>4TS1</t>
   </si>
   <si>
+    <t>01-042</t>
+  </si>
+  <si>
+    <t>2023-08-29</t>
+  </si>
+  <si>
+    <t>13/9/23 מספרת שמתרגלת כל יום פעם ביום. לא אוהבת את הרפיית השרירים, משאיר אותה עם כאב. וזה גם ארוך אז לא מאפשר לתרגל משהו אחר. נשאר לה עוד תרגיל סריקת מתחים אחד והיא תעבור לדימיון המודרך. גנית|13/9/23 מספרת שמתרגלת כל יום פעם ביום. לא אוהבת את הרפיית השרירים, משאיר אותה עם כאב. וזה גם ארוך אז לא מאפשר לתרגל משהו אחר. נשאר לה עוד תרגיל סריקת מתחים אחד והיא תעבור לדימיון המודרך. גנית|13/9/23 מספרת שמתרגלת כל יום פעם ביום. לא אוהבת את הרפיית השרירים, משאיר אותה עם כאב. וזה גם ארוך אז לא מאפשר לתרגל משהו אחר. נשאר לה עוד תרגיל סריקת מתחים אחד והיא תעבור לדימיון המודרך. גנית|דכדגכד|דכדגכד|דכדגכד|דכדגכד</t>
+  </si>
+  <si>
     <t>MMI0</t>
   </si>
   <si>
+    <t>01-002</t>
+  </si>
+  <si>
     <t>MCHG</t>
   </si>
   <si>
+    <t>01-043</t>
+  </si>
+  <si>
+    <t>2023-11-25</t>
+  </si>
+  <si>
+    <t>2024-02-23</t>
+  </si>
+  <si>
+    <t>2024-05-23</t>
+  </si>
+  <si>
+    <t>2024-08-21</t>
+  </si>
+  <si>
+    <t>Need_attention</t>
+  </si>
+  <si>
     <t>0BNI</t>
   </si>
   <si>
+    <t>01-004</t>
+  </si>
+  <si>
+    <t>2023-09-12</t>
+  </si>
+  <si>
+    <t>2023-12-11</t>
+  </si>
+  <si>
+    <t>2024-03-10</t>
+  </si>
+  <si>
+    <t>2024-06-08</t>
+  </si>
+  <si>
+    <t>2024-09-06</t>
+  </si>
+  <si>
+    <t>גנית - 12/9/23 - להתקשר לברר מדוע לא מתרגל.</t>
+  </si>
+  <si>
     <t>V2WT</t>
   </si>
   <si>
+    <t>01-046</t>
+  </si>
+  <si>
+    <t>2023-12-24</t>
+  </si>
+  <si>
+    <t>2024-03-23</t>
+  </si>
+  <si>
+    <t>2024-06-21</t>
+  </si>
+  <si>
+    <t>2024-09-19</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
+  </si>
+  <si>
     <t>N01G</t>
   </si>
   <si>
@@ -859,33 +1109,66 @@
     <t>3VZO</t>
   </si>
   <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">פיילוט </t>
+  </si>
+  <si>
     <t>H3ZN</t>
   </si>
   <si>
+    <t>01-001 גנית</t>
+  </si>
+  <si>
     <t>KM2Z</t>
   </si>
   <si>
+    <t>טל סלע</t>
+  </si>
+  <si>
     <t>OAM6</t>
   </si>
   <si>
+    <t>אדיר חדד</t>
+  </si>
+  <si>
     <t>5BMH</t>
   </si>
   <si>
+    <t>הילה קינן</t>
+  </si>
+  <si>
     <t>KPXH</t>
   </si>
   <si>
+    <t>חגית קוטרו</t>
+  </si>
+  <si>
     <t>UQ27</t>
   </si>
   <si>
+    <t>מרינה גרין</t>
+  </si>
+  <si>
     <t>0JLR</t>
   </si>
   <si>
+    <t>שלי יזרעאלי</t>
+  </si>
+  <si>
     <t>HX59</t>
   </si>
   <si>
+    <t>אודליה דאבוש</t>
+  </si>
+  <si>
     <t>P835</t>
   </si>
   <si>
+    <t>חנה אללוף</t>
+  </si>
+  <si>
     <t>W30P</t>
   </si>
   <si>
@@ -895,74 +1178,155 @@
     <t>KQB2</t>
   </si>
   <si>
+    <t>גלית עצמון</t>
+  </si>
+  <si>
     <t>XV2M</t>
   </si>
   <si>
+    <t>נדב סיינוק</t>
+  </si>
+  <si>
     <t>D2EZ</t>
   </si>
   <si>
     <t>HBSB</t>
   </si>
   <si>
+    <t>יאיר</t>
+  </si>
+  <si>
     <t>AU33</t>
   </si>
   <si>
+    <t>רחלי אלמוג</t>
+  </si>
+  <si>
     <t>M7G8</t>
   </si>
   <si>
+    <t>הילה אסקיו</t>
+  </si>
+  <si>
     <t>4HVU</t>
   </si>
   <si>
+    <t>שלומית דויטשר</t>
+  </si>
+  <si>
     <t>DF2R</t>
   </si>
   <si>
+    <t>יעלה טרבלסי</t>
+  </si>
+  <si>
     <t>A3KW</t>
   </si>
   <si>
+    <t>זיו</t>
+  </si>
+  <si>
     <t>G50Y</t>
   </si>
   <si>
+    <t>מיכל קאימי</t>
+  </si>
+  <si>
     <t>DMB5</t>
   </si>
   <si>
+    <t>תומר</t>
+  </si>
+  <si>
     <t>NG2X</t>
   </si>
   <si>
     <t>LPML</t>
   </si>
   <si>
-    <t>C</t>
+    <t>ליאת אייל</t>
+  </si>
+  <si>
+    <t>משתמש</t>
+  </si>
+  <si>
+    <t>סיסמה</t>
   </si>
   <si>
     <t>group type</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
     <t xml:space="preserve">** C - control group </t>
   </si>
   <si>
     <t>** E - Experimental group</t>
   </si>
   <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>משתמש</t>
-  </si>
-  <si>
-    <t>סיסמה</t>
-  </si>
-  <si>
-    <t xml:space="preserve">פיילוט </t>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>01-001</t>
+  </si>
+  <si>
+    <t>01-047</t>
+  </si>
+  <si>
+    <t>01-006</t>
+  </si>
+  <si>
+    <t>01-005</t>
+  </si>
+  <si>
+    <t>Free for E-patient</t>
+  </si>
+  <si>
+    <t>Free for C-patient</t>
+  </si>
+  <si>
+    <t>sheeet</t>
+  </si>
+  <si>
+    <t>Free for C-Patient</t>
+  </si>
+  <si>
+    <t>01-006 NEW</t>
+  </si>
+  <si>
+    <t>01-047 NEW</t>
+  </si>
+  <si>
+    <t>הלן ישראל</t>
+  </si>
+  <si>
+    <t>נועה שולץ</t>
+  </si>
+  <si>
+    <t>ענג קביזון</t>
+  </si>
+  <si>
+    <t>01-005 NEW</t>
+  </si>
+  <si>
+    <t>Allocated for E-Patient</t>
+  </si>
+  <si>
+    <t>דורון</t>
+  </si>
+  <si>
+    <t>Allocated for C-Patient</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -984,8 +1348,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -995,6 +1373,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,7 +1456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1060,6 +1468,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1363,15 +1785,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I301"/>
+  <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152:C167"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="F203" sqref="F203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1379,3481 +1805,5046 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
         <v>132607</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>302</v>
+        <v>14</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>305</v>
-      </c>
-      <c r="I2" t="e">
-        <f>unic</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>608563</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>302</v>
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
         <v>129098</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+        <v>14</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
         <v>125785</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+        <v>14</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
         <v>523678</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+        <v>14</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
         <v>994670</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+        <v>14</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
         <v>737460</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>738266</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>441626</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>663230</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>951446</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>594572</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+        <v>14</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
         <v>243153</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>797463</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>775348</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>559121</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>377490</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>921776</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>550973</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>916888</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>681258</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>964887</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>953304</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>528005</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>494418</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>541826</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>401895</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>125775</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>819029</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>569512</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>440518</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>883764</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>275475</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>495141</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>714268</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>175696</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>701065</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>127860</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>339655</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>392844</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>867203</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>807052</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>311510</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>327551</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>725849</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>123888</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>649515</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>390397</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>193304</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>381622</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>812290</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>243195</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>349081</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>194517</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>132677</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>380198</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>578877</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>813358</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>415428</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>344979</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>978164</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>623875</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>276765</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>350061</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>693896</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>383417</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>589520</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>474395</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>309388</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>124820</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>473599</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>261059</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>469300</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>176306</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>547236</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>741889</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>106232</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>342219</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>849316</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>500378</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>182604</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>418328</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>137348</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>619954</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>980202</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>427423</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>736274</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>544882</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>938910</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>787253</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>385497</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>459896</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>408289</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>178568</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>255186</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>498217</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>176290</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>866230</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>790917</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>333873</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>954605</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>140378</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>688954</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>476856</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>749045</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>262442</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>859660</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>638522</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>790657</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>907100</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>660550</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>669553</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>737254</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>758928</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>297693</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>630022</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>855586</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>514354</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>256928</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>684299</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>638877</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>762956</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D123" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>474436</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>557004</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>558611</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>419242</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>676987</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D128" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>259849</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D129" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>430347</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D130" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>267631</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>694813</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D132" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>815943</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D133" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>305779</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D134" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>604901</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D135" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>261037</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D136" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>121633</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D137" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>484118</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D138" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>728931</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D139" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>465187</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D140" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>753726</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D141" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>183033</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D142" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>919888</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D143" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>262433</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D144" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>217309</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D145" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>922910</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D146" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>752874</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D147" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>540843</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D148" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>798601</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D149" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>259670</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D150" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>236870</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D151" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="5">
         <v>309014</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D152" t="s">
+        <v>199</v>
+      </c>
+      <c r="E152" t="s">
+        <v>200</v>
+      </c>
+      <c r="F152" t="s">
+        <v>200</v>
+      </c>
+      <c r="G152" t="s">
+        <v>201</v>
+      </c>
+      <c r="H152" t="s">
+        <v>202</v>
+      </c>
+      <c r="I152" t="s">
+        <v>203</v>
+      </c>
+      <c r="J152" t="s">
+        <v>21</v>
+      </c>
+      <c r="K152" t="s">
+        <v>204</v>
+      </c>
+      <c r="L152" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="5">
         <v>590307</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>153</v>
+        <v>205</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D153" t="s">
+        <v>206</v>
+      </c>
+      <c r="E153" t="s">
+        <v>200</v>
+      </c>
+      <c r="F153" t="s">
+        <v>200</v>
+      </c>
+      <c r="G153" t="s">
+        <v>201</v>
+      </c>
+      <c r="H153" t="s">
+        <v>202</v>
+      </c>
+      <c r="I153" t="s">
+        <v>203</v>
+      </c>
+      <c r="J153" t="s">
+        <v>21</v>
+      </c>
+      <c r="K153" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="5">
         <v>847633</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="5">
         <v>538067</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D155" t="s">
+        <v>209</v>
+      </c>
+      <c r="E155" t="s">
+        <v>200</v>
+      </c>
+      <c r="F155" t="s">
+        <v>200</v>
+      </c>
+      <c r="G155" t="s">
+        <v>201</v>
+      </c>
+      <c r="H155" t="s">
+        <v>202</v>
+      </c>
+      <c r="I155" t="s">
+        <v>203</v>
+      </c>
+      <c r="J155" t="s">
+        <v>21</v>
+      </c>
+      <c r="K155" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="5">
         <v>889142</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D156" t="s">
+        <v>211</v>
+      </c>
+      <c r="E156" t="s">
+        <v>200</v>
+      </c>
+      <c r="F156" t="s">
+        <v>200</v>
+      </c>
+      <c r="G156" t="s">
+        <v>201</v>
+      </c>
+      <c r="H156" t="s">
+        <v>202</v>
+      </c>
+      <c r="I156" t="s">
+        <v>203</v>
+      </c>
+      <c r="J156" t="s">
+        <v>21</v>
+      </c>
+      <c r="K156" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="5">
         <v>988429</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>157</v>
+        <v>212</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D157" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="5">
         <v>159320</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>158</v>
+        <v>213</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D158" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="5">
         <v>985070</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D159" t="s">
+        <v>215</v>
+      </c>
+      <c r="E159" t="s">
+        <v>200</v>
+      </c>
+      <c r="F159" t="s">
+        <v>200</v>
+      </c>
+      <c r="G159" t="s">
+        <v>201</v>
+      </c>
+      <c r="H159" t="s">
+        <v>202</v>
+      </c>
+      <c r="I159" t="s">
+        <v>203</v>
+      </c>
+      <c r="J159" t="s">
+        <v>21</v>
+      </c>
+      <c r="K159" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="5">
         <v>872696</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>160</v>
+        <v>216</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D160" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" s="5">
         <v>645107</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>161</v>
+        <v>217</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D161" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" s="5">
         <v>213190</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D162" t="s">
+        <v>219</v>
+      </c>
+      <c r="E162" t="s">
+        <v>17</v>
+      </c>
+      <c r="F162" t="s">
+        <v>17</v>
+      </c>
+      <c r="G162" t="s">
+        <v>220</v>
+      </c>
+      <c r="H162" t="s">
+        <v>202</v>
+      </c>
+      <c r="I162" t="s">
+        <v>203</v>
+      </c>
+      <c r="J162" t="s">
+        <v>21</v>
+      </c>
+      <c r="K162" t="s">
+        <v>204</v>
+      </c>
+      <c r="M162" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" s="5">
         <v>170406</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>163</v>
+        <v>222</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D163" t="s">
+        <v>223</v>
+      </c>
+      <c r="E163" t="s">
+        <v>17</v>
+      </c>
+      <c r="F163" t="s">
+        <v>17</v>
+      </c>
+      <c r="G163" t="s">
+        <v>201</v>
+      </c>
+      <c r="H163" t="s">
+        <v>202</v>
+      </c>
+      <c r="I163" t="s">
+        <v>203</v>
+      </c>
+      <c r="J163" t="s">
+        <v>21</v>
+      </c>
+      <c r="K163" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" s="5">
         <v>588655</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D164" t="s">
+        <v>225</v>
+      </c>
+      <c r="E164" t="s">
+        <v>17</v>
+      </c>
+      <c r="F164" t="s">
+        <v>17</v>
+      </c>
+      <c r="G164" t="s">
+        <v>220</v>
+      </c>
+      <c r="H164" t="s">
+        <v>226</v>
+      </c>
+      <c r="I164" t="s">
+        <v>227</v>
+      </c>
+      <c r="J164" t="s">
+        <v>228</v>
+      </c>
+      <c r="K164" t="s">
+        <v>229</v>
+      </c>
+      <c r="L164" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" s="5">
         <v>441310</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>165</v>
+        <v>231</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D165" t="s">
+        <v>232</v>
+      </c>
+      <c r="E165" t="s">
+        <v>17</v>
+      </c>
+      <c r="F165" t="s">
+        <v>17</v>
+      </c>
+      <c r="G165" t="s">
+        <v>233</v>
+      </c>
+      <c r="H165" t="s">
+        <v>234</v>
+      </c>
+      <c r="I165" t="s">
+        <v>235</v>
+      </c>
+      <c r="J165" t="s">
+        <v>236</v>
+      </c>
+      <c r="K165" t="s">
+        <v>237</v>
+      </c>
+      <c r="L165" t="s">
+        <v>230</v>
+      </c>
+      <c r="M165" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" s="5">
         <v>312435</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>166</v>
+        <v>239</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D166" t="s">
+        <v>240</v>
+      </c>
+      <c r="E166" t="s">
+        <v>17</v>
+      </c>
+      <c r="F166" t="s">
+        <v>46</v>
+      </c>
+      <c r="G166" t="s">
+        <v>241</v>
+      </c>
+      <c r="H166" t="s">
+        <v>242</v>
+      </c>
+      <c r="I166" t="s">
+        <v>243</v>
+      </c>
+      <c r="J166" t="s">
+        <v>244</v>
+      </c>
+      <c r="K166" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" s="5">
         <v>505418</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>167</v>
+        <v>246</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D167" s="12" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>376454</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>168</v>
+        <v>247</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D168" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>123773</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>169</v>
+        <v>248</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D169" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>670053</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>170</v>
+        <v>249</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D170" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>836877</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>171</v>
+        <v>250</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D171" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>416703</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>172</v>
+        <v>251</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D172" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>901595</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>173</v>
+        <v>252</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D173" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>941906</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D174" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>627642</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>175</v>
+        <v>254</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D175" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>899270</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>176</v>
+        <v>255</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D176" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>590058</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>177</v>
+        <v>256</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D177" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>371205</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>178</v>
+        <v>257</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D178" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>230657</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>179</v>
+        <v>258</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D179" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>920598</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D180" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>248805</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D181" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>795262</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D182" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>798645</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>183</v>
+        <v>262</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D183" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>525832</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D184" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>792144</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D185" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>551946</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D186" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>499921</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D187" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>131181</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D188" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>109050</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D189" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>814695</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>190</v>
+        <v>269</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D190" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>617288</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D191" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>362341</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>192</v>
+        <v>271</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D192" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>168037</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>193</v>
+        <v>272</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D193" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>498906</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>194</v>
+        <v>273</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D194" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>377337</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>195</v>
+        <v>274</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D195" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>153481</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>196</v>
+        <v>275</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D196" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>777608</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>197</v>
+        <v>276</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D197" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>138321</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>198</v>
+        <v>277</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D198" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>940840</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>199</v>
+        <v>278</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D199" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>477622</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>200</v>
+        <v>279</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D200" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>788436</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>201</v>
+        <v>280</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D201" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>124210</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>202</v>
+        <v>281</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D202" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>953959</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>203</v>
+        <v>282</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D203" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>837763</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>204</v>
+        <v>283</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D204" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>955318</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>205</v>
+        <v>284</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D205" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>725305</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>206</v>
+        <v>285</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D206" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>441140</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>207</v>
+        <v>286</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D207" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>140987</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>208</v>
+        <v>287</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D208" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>524829</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>209</v>
+        <v>288</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D209" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>270875</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>210</v>
+        <v>289</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D210" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>295528</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>211</v>
+        <v>290</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D211" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>633362</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>212</v>
+        <v>291</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D212" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>401332</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>213</v>
+        <v>292</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D213" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>867537</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D214" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>670080</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D215" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>109607</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>216</v>
+        <v>295</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D216" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>253467</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>217</v>
+        <v>296</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D217" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>760025</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>218</v>
+        <v>297</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D218" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>219224</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>219</v>
+        <v>298</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D219" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>236594</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>220</v>
+        <v>299</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D220" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>142340</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>221</v>
+        <v>300</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D221" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>416983</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>222</v>
+        <v>301</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D222" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>162554</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>223</v>
+        <v>302</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D223" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>805552</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>224</v>
+        <v>303</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D224" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>430470</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>225</v>
+        <v>304</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D225" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>682715</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>226</v>
+        <v>305</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D226" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>125422</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>227</v>
+        <v>306</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D227" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>396572</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>228</v>
+        <v>307</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D228" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>837658</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>229</v>
+        <v>308</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D229" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>258437</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>230</v>
+        <v>309</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D230" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>890385</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>231</v>
+        <v>310</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D231" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>664614</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>232</v>
+        <v>311</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D232" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>938321</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>233</v>
+        <v>312</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D233" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>600996</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>234</v>
+        <v>313</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D234" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>480445</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>235</v>
+        <v>314</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D235" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>768723</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>236</v>
+        <v>315</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D236" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>246117</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>237</v>
+        <v>316</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D237" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>125548</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>238</v>
+        <v>317</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D238" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>116030</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>239</v>
+        <v>318</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D239" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>532833</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>240</v>
+        <v>319</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D240" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>258194</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>241</v>
+        <v>320</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D241" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>790649</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>242</v>
+        <v>321</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D242" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>408393</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>243</v>
+        <v>322</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D243" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>130690</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>244</v>
+        <v>323</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D244" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>722019</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>245</v>
+        <v>324</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D245" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>161316</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>246</v>
+        <v>325</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D246" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>130692</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>247</v>
+        <v>326</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D247" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>259516</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>248</v>
+        <v>327</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D248" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>711278</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>249</v>
+        <v>328</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D249" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>604010</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>250</v>
+        <v>329</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D250" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>265571</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>251</v>
+        <v>330</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D251" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>435185</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>252</v>
+        <v>331</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D252" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>298834</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>253</v>
+        <v>332</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D253" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>704753</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>254</v>
+        <v>333</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D254" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>282119</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>255</v>
+        <v>334</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D255" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>961003</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>256</v>
+        <v>335</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D256" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>840316</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>257</v>
+        <v>336</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D257" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>222365</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>258</v>
+        <v>337</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D258" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>539448</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>259</v>
+        <v>338</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D259" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>168232</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>260</v>
+        <v>339</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D260" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>521488</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>261</v>
+        <v>340</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D261" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>367321</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>262</v>
+        <v>341</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D262" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>448880</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>263</v>
+        <v>342</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D263" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>957707</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>264</v>
+        <v>343</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D264" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>545688</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>265</v>
+        <v>344</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D265" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>418967</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>266</v>
+        <v>345</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D266" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>941428</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>267</v>
+        <v>346</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D267" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>347267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>268</v>
+        <v>347</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D268" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>104372</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>269</v>
+        <v>348</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D269" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>745171</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>270</v>
+        <v>349</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D270" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>942780</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>271</v>
+        <v>350</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D271" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>925707</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D272" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>735195</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>273</v>
+        <v>352</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D273" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>882321</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>274</v>
+        <v>353</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D274" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>907335</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>275</v>
+        <v>354</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D275" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>291069</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>276</v>
+        <v>355</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D276" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>789271</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>277</v>
+        <v>356</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>304</v>
+        <v>198</v>
       </c>
       <c r="D277" t="s">
-        <v>307</v>
+        <v>357</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>533772</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>278</v>
+        <v>359</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>304</v>
+        <v>198</v>
       </c>
       <c r="D278" t="s">
-        <v>307</v>
+        <v>360</v>
       </c>
       <c r="E278" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="F278" t="s">
+        <v>17</v>
+      </c>
+      <c r="G278" t="s">
+        <v>28</v>
+      </c>
+      <c r="H278" t="s">
+        <v>226</v>
+      </c>
+      <c r="I278" t="s">
+        <v>227</v>
+      </c>
+      <c r="J278" t="s">
+        <v>228</v>
+      </c>
+      <c r="K278" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>979471</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>279</v>
+        <v>361</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>304</v>
+        <v>198</v>
       </c>
       <c r="D279" t="s">
-        <v>307</v>
+        <v>362</v>
       </c>
       <c r="E279" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="F279" t="s">
+        <v>200</v>
+      </c>
+      <c r="G279" t="s">
+        <v>201</v>
+      </c>
+      <c r="H279" t="s">
+        <v>202</v>
+      </c>
+      <c r="I279" t="s">
+        <v>203</v>
+      </c>
+      <c r="J279" t="s">
+        <v>21</v>
+      </c>
+      <c r="K279" t="s">
+        <v>204</v>
+      </c>
+      <c r="L279" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>433534</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>280</v>
+        <v>363</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>304</v>
+        <v>198</v>
       </c>
       <c r="D280" t="s">
-        <v>307</v>
+        <v>364</v>
       </c>
       <c r="E280" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="F280" t="s">
+        <v>200</v>
+      </c>
+      <c r="G280" t="s">
+        <v>201</v>
+      </c>
+      <c r="H280" t="s">
+        <v>202</v>
+      </c>
+      <c r="I280" t="s">
+        <v>203</v>
+      </c>
+      <c r="J280" t="s">
+        <v>21</v>
+      </c>
+      <c r="K280" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>185957</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>281</v>
+        <v>365</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>304</v>
+        <v>198</v>
       </c>
       <c r="D281" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
       <c r="E281" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="F281" t="s">
+        <v>200</v>
+      </c>
+      <c r="G281" t="s">
+        <v>201</v>
+      </c>
+      <c r="H281" t="s">
+        <v>202</v>
+      </c>
+      <c r="I281" t="s">
+        <v>203</v>
+      </c>
+      <c r="J281" t="s">
+        <v>21</v>
+      </c>
+      <c r="K281" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>997539</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>282</v>
+        <v>367</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>304</v>
+        <v>198</v>
       </c>
       <c r="D282" t="s">
-        <v>307</v>
+        <v>368</v>
       </c>
       <c r="E282" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="F282" t="s">
+        <v>200</v>
+      </c>
+      <c r="G282" t="s">
+        <v>201</v>
+      </c>
+      <c r="H282" t="s">
+        <v>202</v>
+      </c>
+      <c r="I282" t="s">
+        <v>203</v>
+      </c>
+      <c r="J282" t="s">
+        <v>21</v>
+      </c>
+      <c r="K282" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>581651</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>283</v>
+        <v>369</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>304</v>
+        <v>198</v>
       </c>
       <c r="D283" t="s">
-        <v>307</v>
+        <v>370</v>
       </c>
       <c r="E283" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="F283" t="s">
+        <v>200</v>
+      </c>
+      <c r="G283" t="s">
+        <v>201</v>
+      </c>
+      <c r="H283" t="s">
+        <v>202</v>
+      </c>
+      <c r="I283" t="s">
+        <v>203</v>
+      </c>
+      <c r="J283" t="s">
+        <v>21</v>
+      </c>
+      <c r="K283" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>493614</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>284</v>
+        <v>371</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>304</v>
+        <v>198</v>
       </c>
       <c r="D284" t="s">
-        <v>307</v>
+        <v>372</v>
       </c>
       <c r="E284" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="F284" t="s">
+        <v>200</v>
+      </c>
+      <c r="G284" t="s">
+        <v>201</v>
+      </c>
+      <c r="H284" t="s">
+        <v>202</v>
+      </c>
+      <c r="I284" t="s">
+        <v>203</v>
+      </c>
+      <c r="J284" t="s">
+        <v>21</v>
+      </c>
+      <c r="K284" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>869576</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>285</v>
+        <v>373</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>304</v>
+        <v>198</v>
       </c>
       <c r="D285" t="s">
-        <v>307</v>
+        <v>374</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="F285" t="s">
+        <v>200</v>
+      </c>
+      <c r="G285" t="s">
+        <v>201</v>
+      </c>
+      <c r="H285" t="s">
+        <v>202</v>
+      </c>
+      <c r="I285" t="s">
+        <v>203</v>
+      </c>
+      <c r="J285" t="s">
+        <v>21</v>
+      </c>
+      <c r="K285" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>166937</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>286</v>
+        <v>375</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>304</v>
+        <v>198</v>
       </c>
       <c r="D286" t="s">
-        <v>307</v>
+        <v>376</v>
       </c>
       <c r="E286" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="F286" t="s">
+        <v>17</v>
+      </c>
+      <c r="G286" t="s">
+        <v>201</v>
+      </c>
+      <c r="H286" t="s">
+        <v>202</v>
+      </c>
+      <c r="I286" t="s">
+        <v>203</v>
+      </c>
+      <c r="J286" t="s">
+        <v>21</v>
+      </c>
+      <c r="K286" t="s">
+        <v>204</v>
+      </c>
+      <c r="L286" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287" s="5">
         <v>869123</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>287</v>
+        <v>377</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="D287" t="s">
-        <v>307</v>
+        <v>198</v>
+      </c>
+      <c r="D287" s="12" t="s">
+        <v>425</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288" s="5">
         <v>300076</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>288</v>
+        <v>378</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>304</v>
+        <v>198</v>
       </c>
       <c r="D288" t="s">
-        <v>307</v>
+        <v>357</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289" s="5">
         <v>321843</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>289</v>
+        <v>379</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>304</v>
+        <v>198</v>
       </c>
       <c r="D289" t="s">
-        <v>307</v>
-      </c>
-      <c r="E289" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+      <c r="E289" s="6"/>
+      <c r="G289" t="s">
+        <v>201</v>
+      </c>
+      <c r="H289" t="s">
+        <v>202</v>
+      </c>
+      <c r="I289" t="s">
+        <v>203</v>
+      </c>
+      <c r="J289" t="s">
+        <v>21</v>
+      </c>
+      <c r="K289" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290" s="5">
         <v>650674</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>290</v>
+        <v>381</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>304</v>
+        <v>198</v>
       </c>
       <c r="D290" t="s">
-        <v>307</v>
+        <v>382</v>
       </c>
       <c r="E290" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+        <v>358</v>
+      </c>
+      <c r="G290" t="s">
+        <v>201</v>
+      </c>
+      <c r="H290" t="s">
+        <v>202</v>
+      </c>
+      <c r="I290" t="s">
+        <v>203</v>
+      </c>
+      <c r="J290" t="s">
+        <v>21</v>
+      </c>
+      <c r="K290" t="s">
+        <v>204</v>
+      </c>
+      <c r="L290" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291" s="5">
         <v>289205</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>291</v>
+        <v>383</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>304</v>
+        <v>198</v>
       </c>
       <c r="D291" t="s">
-        <v>307</v>
+        <v>357</v>
       </c>
       <c r="E291" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A292" s="5">
         <v>141787</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>292</v>
+        <v>384</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>304</v>
+        <v>198</v>
       </c>
       <c r="D292" t="s">
-        <v>307</v>
+        <v>385</v>
       </c>
       <c r="E292" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="F292" t="s">
+        <v>17</v>
+      </c>
+      <c r="G292" t="s">
+        <v>201</v>
+      </c>
+      <c r="H292" t="s">
+        <v>202</v>
+      </c>
+      <c r="I292" t="s">
+        <v>203</v>
+      </c>
+      <c r="J292" t="s">
+        <v>21</v>
+      </c>
+      <c r="K292" t="s">
+        <v>204</v>
+      </c>
+      <c r="L292" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293" s="5">
         <v>287679</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>293</v>
+        <v>386</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>304</v>
+        <v>198</v>
       </c>
       <c r="D293" t="s">
-        <v>307</v>
+        <v>387</v>
       </c>
       <c r="E293" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="F293" t="s">
+        <v>200</v>
+      </c>
+      <c r="G293" t="s">
+        <v>201</v>
+      </c>
+      <c r="H293" t="s">
+        <v>202</v>
+      </c>
+      <c r="I293" t="s">
+        <v>203</v>
+      </c>
+      <c r="J293" t="s">
+        <v>21</v>
+      </c>
+      <c r="K293" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294" s="5">
         <v>647487</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>294</v>
+        <v>388</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>304</v>
+        <v>198</v>
       </c>
       <c r="D294" t="s">
-        <v>307</v>
+        <v>389</v>
       </c>
       <c r="E294" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="F294" t="s">
+        <v>200</v>
+      </c>
+      <c r="G294" t="s">
+        <v>201</v>
+      </c>
+      <c r="H294" t="s">
+        <v>202</v>
+      </c>
+      <c r="I294" t="s">
+        <v>203</v>
+      </c>
+      <c r="J294" t="s">
+        <v>21</v>
+      </c>
+      <c r="K294" t="s">
+        <v>204</v>
+      </c>
+      <c r="L294" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A295" s="5">
         <v>451487</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>295</v>
+        <v>390</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>304</v>
+        <v>198</v>
       </c>
       <c r="D295" t="s">
-        <v>307</v>
+        <v>391</v>
       </c>
       <c r="E295" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="F295" t="s">
+        <v>200</v>
+      </c>
+      <c r="G295" t="s">
+        <v>201</v>
+      </c>
+      <c r="H295" t="s">
+        <v>202</v>
+      </c>
+      <c r="I295" t="s">
+        <v>203</v>
+      </c>
+      <c r="J295" t="s">
+        <v>21</v>
+      </c>
+      <c r="K295" t="s">
+        <v>204</v>
+      </c>
+      <c r="L295" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296" s="5">
         <v>861671</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>296</v>
+        <v>392</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>304</v>
+        <v>198</v>
       </c>
       <c r="D296" t="s">
-        <v>307</v>
+        <v>393</v>
       </c>
       <c r="E296" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="F296" t="s">
+        <v>200</v>
+      </c>
+      <c r="G296" t="s">
+        <v>201</v>
+      </c>
+      <c r="H296" t="s">
+        <v>202</v>
+      </c>
+      <c r="I296" t="s">
+        <v>203</v>
+      </c>
+      <c r="J296" t="s">
+        <v>21</v>
+      </c>
+      <c r="K296" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A297" s="5">
         <v>316094</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>297</v>
+        <v>394</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>304</v>
+        <v>198</v>
       </c>
       <c r="D297" t="s">
-        <v>307</v>
+        <v>395</v>
       </c>
       <c r="E297" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="F297" t="s">
+        <v>17</v>
+      </c>
+      <c r="G297" t="s">
+        <v>201</v>
+      </c>
+      <c r="H297" t="s">
+        <v>202</v>
+      </c>
+      <c r="I297" t="s">
+        <v>203</v>
+      </c>
+      <c r="J297" t="s">
+        <v>21</v>
+      </c>
+      <c r="K297" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A298" s="5">
         <v>924424</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>298</v>
+        <v>396</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>304</v>
+        <v>198</v>
       </c>
       <c r="D298" t="s">
-        <v>307</v>
+        <v>397</v>
       </c>
       <c r="E298" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="F298" t="s">
+        <v>200</v>
+      </c>
+      <c r="G298" t="s">
+        <v>201</v>
+      </c>
+      <c r="H298" t="s">
+        <v>202</v>
+      </c>
+      <c r="I298" t="s">
+        <v>203</v>
+      </c>
+      <c r="J298" t="s">
+        <v>21</v>
+      </c>
+      <c r="K298" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A299" s="5">
         <v>918170</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>299</v>
+        <v>398</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>304</v>
+        <v>198</v>
       </c>
       <c r="D299" t="s">
-        <v>307</v>
+        <v>399</v>
       </c>
       <c r="E299" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="F299" t="s">
+        <v>17</v>
+      </c>
+      <c r="G299" t="s">
+        <v>201</v>
+      </c>
+      <c r="H299" t="s">
+        <v>202</v>
+      </c>
+      <c r="I299" t="s">
+        <v>203</v>
+      </c>
+      <c r="J299" t="s">
+        <v>21</v>
+      </c>
+      <c r="K299" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A300" s="5">
         <v>617771</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>304</v>
+        <v>198</v>
       </c>
       <c r="D300" t="s">
-        <v>307</v>
+        <v>357</v>
       </c>
       <c r="E300" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A301" s="5">
         <v>230325</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>304</v>
+        <v>198</v>
       </c>
       <c r="D301" t="s">
-        <v>307</v>
+        <v>402</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>310</v>
+        <v>200</v>
+      </c>
+      <c r="F301" t="s">
+        <v>200</v>
+      </c>
+      <c r="G301" t="s">
+        <v>201</v>
+      </c>
+      <c r="H301" t="s">
+        <v>202</v>
+      </c>
+      <c r="I301" t="s">
+        <v>203</v>
+      </c>
+      <c r="J301" t="s">
+        <v>21</v>
+      </c>
+      <c r="K301" t="s">
+        <v>204</v>
+      </c>
+      <c r="L301" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M301" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89032201-153E-4B75-80A0-76022DCCE253}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4864,10 +6855,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>308</v>
+        <v>403</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>309</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -4875,7 +6866,7 @@
         <v>869123</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>287</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4883,7 +6874,7 @@
         <v>300076</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>288</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4891,7 +6882,7 @@
         <v>321843</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>289</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4899,7 +6890,7 @@
         <v>650674</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>290</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4907,7 +6898,7 @@
         <v>289205</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>291</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4915,7 +6906,7 @@
         <v>141787</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>292</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -4923,7 +6914,7 @@
         <v>287679</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>293</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -4931,7 +6922,7 @@
         <v>647487</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>294</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -4939,7 +6930,7 @@
         <v>451487</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>295</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4947,7 +6938,7 @@
         <v>861671</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>296</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -4955,7 +6946,7 @@
         <v>316094</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>297</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -4963,7 +6954,7 @@
         <v>924424</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>298</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -4971,7 +6962,7 @@
         <v>918170</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>299</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -4979,7 +6970,7 @@
         <v>617771</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -4987,7 +6978,7 @@
         <v>230325</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>301</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -4996,22 +6987,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A2884C-ADA3-4D07-B185-05B52E6CE092}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B11"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>308</v>
+        <v>403</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>309</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -5019,7 +7010,7 @@
         <v>789271</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>277</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5027,7 +7018,7 @@
         <v>533772</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>278</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -5035,7 +7026,7 @@
         <v>979471</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>279</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5043,7 +7034,7 @@
         <v>433534</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>280</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5051,7 +7042,7 @@
         <v>185957</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>281</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5059,7 +7050,7 @@
         <v>997539</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>282</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -5067,7 +7058,7 @@
         <v>581651</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>283</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5075,7 +7066,7 @@
         <v>493614</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>284</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -5083,7 +7074,7 @@
         <v>869576</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>285</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5091,7 +7082,7 @@
         <v>166937</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>286</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -5100,17 +7091,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DBE8F53-2847-4957-8E22-8992B1ED0AB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5118,346 +7112,448 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="I1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
+        <v>125785</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>129098</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>132607</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="F2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>243153</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>441626</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>523678</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6270</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>594572</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>608563</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="F3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>129098</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>663230</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>737460</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>738266</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>797463</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>951446</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>994670</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>159320</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>125785</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>523678</v>
-      </c>
-      <c r="B6" s="2">
-        <v>6270</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>994670</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>737460</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>738266</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>441626</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>663230</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>951446</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>594572</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>243153</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>797463</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>170406</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>213190</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
         <v>309014</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="B19" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>312435</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>441310</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>505418</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>538067</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>588655</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
         <v>590307</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+      <c r="B25" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>645107</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
         <v>847633</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>538067</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+      <c r="B27" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>872696</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
         <v>889142</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+      <c r="B29" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>985070</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
         <v>988429</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>159320</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>985070</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
-        <v>872696</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
-        <v>645107</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
-        <v>213190</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>170406</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
-        <v>588655</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
-        <v>441310</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
-        <v>312435</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>505418</v>
-      </c>
       <c r="B31" s="5" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>304</v>
+        <v>198</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I31" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I31">
+    <sortCondition ref="C2:C31"/>
+    <sortCondition ref="A2:A31"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>